--- a/data/download_SH511010.xlsx
+++ b/data/download_SH511010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2865"/>
+  <dimension ref="A1:F2880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69189,16 +69189,376 @@
         </is>
       </c>
       <c r="C2865" t="n">
-        <v>141.4</v>
+        <v>141.411</v>
       </c>
       <c r="D2865" t="n">
         <v>141.36</v>
       </c>
       <c r="E2865" t="n">
-        <v>141.435</v>
+        <v>141.438</v>
       </c>
       <c r="F2865" t="n">
         <v>141.26</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>20250103</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2866" t="n">
+        <v>141.787</v>
+      </c>
+      <c r="D2866" t="n">
+        <v>141.47</v>
+      </c>
+      <c r="E2866" t="n">
+        <v>141.799</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>141.47</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>20250106</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2867" t="n">
+        <v>141.789</v>
+      </c>
+      <c r="D2867" t="n">
+        <v>141.807</v>
+      </c>
+      <c r="E2867" t="n">
+        <v>141.999</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>141.601</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2868" t="n">
+        <v>141.558</v>
+      </c>
+      <c r="D2868" t="n">
+        <v>141.793</v>
+      </c>
+      <c r="E2868" t="n">
+        <v>141.793</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>141.453</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2869" t="n">
+        <v>141.603</v>
+      </c>
+      <c r="D2869" t="n">
+        <v>141.51</v>
+      </c>
+      <c r="E2869" t="n">
+        <v>141.675</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>141.51</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>20250109</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2870" t="n">
+        <v>141.298</v>
+      </c>
+      <c r="D2870" t="n">
+        <v>141.551</v>
+      </c>
+      <c r="E2870" t="n">
+        <v>141.601</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>141.27</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>20250110</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2871" t="n">
+        <v>141.209</v>
+      </c>
+      <c r="D2871" t="n">
+        <v>140.95</v>
+      </c>
+      <c r="E2871" t="n">
+        <v>141.287</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>140.661</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>20250113</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2872" t="n">
+        <v>141.039</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>141.202</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>141.202</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>140.901</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>20250114</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2873" t="n">
+        <v>141.111</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>141.019</v>
+      </c>
+      <c r="E2873" t="n">
+        <v>141.129</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>140.86</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>20250115</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2874" t="n">
+        <v>141.267</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="E2874" t="n">
+        <v>141.345</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>141.239</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>20250116</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2875" t="n">
+        <v>141.243</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>141.229</v>
+      </c>
+      <c r="E2875" t="n">
+        <v>141.325</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>141.116</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2876" t="n">
+        <v>141.178</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>141.293</v>
+      </c>
+      <c r="E2876" t="n">
+        <v>141.293</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>141.166</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2877" t="n">
+        <v>141.189</v>
+      </c>
+      <c r="D2877" t="n">
+        <v>141.128</v>
+      </c>
+      <c r="E2877" t="n">
+        <v>141.22</v>
+      </c>
+      <c r="F2877" t="n">
+        <v>141.085</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>20250121</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2878" t="n">
+        <v>141.219</v>
+      </c>
+      <c r="D2878" t="n">
+        <v>141.086</v>
+      </c>
+      <c r="E2878" t="n">
+        <v>141.226</v>
+      </c>
+      <c r="F2878" t="n">
+        <v>141.086</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>20250122</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2879" t="n">
+        <v>141.31</v>
+      </c>
+      <c r="D2879" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="E2879" t="n">
+        <v>141.347</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>141.288</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>20250123</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2880" t="n">
+        <v>141.146</v>
+      </c>
+      <c r="D2880" t="n">
+        <v>141.259</v>
+      </c>
+      <c r="E2880" t="n">
+        <v>141.265</v>
+      </c>
+      <c r="F2880" t="n">
+        <v>141.093</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH511010.xlsx
+++ b/data/download_SH511010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2880"/>
+  <dimension ref="A1:F2939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69561,6 +69561,1422 @@
         <v>141.093</v>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2881" t="n">
+        <v>141.004</v>
+      </c>
+      <c r="D2881" t="n">
+        <v>141.142</v>
+      </c>
+      <c r="E2881" t="n">
+        <v>141.142</v>
+      </c>
+      <c r="F2881" t="n">
+        <v>140.912</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2882" t="n">
+        <v>141.496</v>
+      </c>
+      <c r="D2882" t="n">
+        <v>141.122</v>
+      </c>
+      <c r="E2882" t="n">
+        <v>141.499</v>
+      </c>
+      <c r="F2882" t="n">
+        <v>141.122</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2883" t="n">
+        <v>141.459</v>
+      </c>
+      <c r="D2883" t="n">
+        <v>141.431</v>
+      </c>
+      <c r="E2883" t="n">
+        <v>141.488</v>
+      </c>
+      <c r="F2883" t="n">
+        <v>141.162</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2884" t="n">
+        <v>141.594</v>
+      </c>
+      <c r="D2884" t="n">
+        <v>141.473</v>
+      </c>
+      <c r="E2884" t="n">
+        <v>141.612</v>
+      </c>
+      <c r="F2884" t="n">
+        <v>141.422</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2885" t="n">
+        <v>141.511</v>
+      </c>
+      <c r="D2885" t="n">
+        <v>141.618</v>
+      </c>
+      <c r="E2885" t="n">
+        <v>141.659</v>
+      </c>
+      <c r="F2885" t="n">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2886" t="n">
+        <v>141.281</v>
+      </c>
+      <c r="D2886" t="n">
+        <v>141.465</v>
+      </c>
+      <c r="E2886" t="n">
+        <v>141.465</v>
+      </c>
+      <c r="F2886" t="n">
+        <v>141.258</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2887" t="n">
+        <v>141.248</v>
+      </c>
+      <c r="D2887" t="n">
+        <v>141.265</v>
+      </c>
+      <c r="E2887" t="n">
+        <v>141.337</v>
+      </c>
+      <c r="F2887" t="n">
+        <v>141.196</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2888" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="D2888" t="n">
+        <v>141.258</v>
+      </c>
+      <c r="E2888" t="n">
+        <v>141.341</v>
+      </c>
+      <c r="F2888" t="n">
+        <v>141.238</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2889" t="n">
+        <v>141.227</v>
+      </c>
+      <c r="D2889" t="n">
+        <v>141.252</v>
+      </c>
+      <c r="E2889" t="n">
+        <v>141.253</v>
+      </c>
+      <c r="F2889" t="n">
+        <v>141.169</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2890" t="n">
+        <v>140.926</v>
+      </c>
+      <c r="D2890" t="n">
+        <v>141.226</v>
+      </c>
+      <c r="E2890" t="n">
+        <v>141.226</v>
+      </c>
+      <c r="F2890" t="n">
+        <v>140.915</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2891" t="n">
+        <v>140.832</v>
+      </c>
+      <c r="D2891" t="n">
+        <v>140.918</v>
+      </c>
+      <c r="E2891" t="n">
+        <v>140.918</v>
+      </c>
+      <c r="F2891" t="n">
+        <v>140.73</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2892" t="n">
+        <v>140.637</v>
+      </c>
+      <c r="D2892" t="n">
+        <v>140.822</v>
+      </c>
+      <c r="E2892" t="n">
+        <v>140.822</v>
+      </c>
+      <c r="F2892" t="n">
+        <v>140.481</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2893" t="n">
+        <v>140.817</v>
+      </c>
+      <c r="D2893" t="n">
+        <v>140.661</v>
+      </c>
+      <c r="E2893" t="n">
+        <v>140.819</v>
+      </c>
+      <c r="F2893" t="n">
+        <v>140.615</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2894" t="n">
+        <v>140.583</v>
+      </c>
+      <c r="D2894" t="n">
+        <v>140.818</v>
+      </c>
+      <c r="E2894" t="n">
+        <v>140.818</v>
+      </c>
+      <c r="F2894" t="n">
+        <v>140.51</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2895" t="n">
+        <v>140.45</v>
+      </c>
+      <c r="D2895" t="n">
+        <v>140.48</v>
+      </c>
+      <c r="E2895" t="n">
+        <v>140.673</v>
+      </c>
+      <c r="F2895" t="n">
+        <v>140.28</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2896" t="n">
+        <v>140.064</v>
+      </c>
+      <c r="D2896" t="n">
+        <v>140.35</v>
+      </c>
+      <c r="E2896" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="F2896" t="n">
+        <v>139.931</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2897" t="n">
+        <v>140.253</v>
+      </c>
+      <c r="D2897" t="n">
+        <v>140.179</v>
+      </c>
+      <c r="E2897" t="n">
+        <v>140.456</v>
+      </c>
+      <c r="F2897" t="n">
+        <v>139.912</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2898" t="n">
+        <v>140.265</v>
+      </c>
+      <c r="D2898" t="n">
+        <v>140.293</v>
+      </c>
+      <c r="E2898" t="n">
+        <v>140.443</v>
+      </c>
+      <c r="F2898" t="n">
+        <v>140.207</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2899" t="n">
+        <v>140.207</v>
+      </c>
+      <c r="D2899" t="n">
+        <v>140.276</v>
+      </c>
+      <c r="E2899" t="n">
+        <v>140.35</v>
+      </c>
+      <c r="F2899" t="n">
+        <v>140.166</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2900" t="n">
+        <v>140.254</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>140.186</v>
+      </c>
+      <c r="E2900" t="n">
+        <v>140.34</v>
+      </c>
+      <c r="F2900" t="n">
+        <v>140.032</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2901" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>140.29</v>
+      </c>
+      <c r="E2901" t="n">
+        <v>140.636</v>
+      </c>
+      <c r="F2901" t="n">
+        <v>140.212</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2902" t="n">
+        <v>140.594</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>140.712</v>
+      </c>
+      <c r="E2902" t="n">
+        <v>140.863</v>
+      </c>
+      <c r="F2902" t="n">
+        <v>140.433</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2903" t="n">
+        <v>140.546</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>140.58</v>
+      </c>
+      <c r="E2903" t="n">
+        <v>140.674</v>
+      </c>
+      <c r="F2903" t="n">
+        <v>140.543</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2904" t="n">
+        <v>140.417</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>140.536</v>
+      </c>
+      <c r="E2904" t="n">
+        <v>140.536</v>
+      </c>
+      <c r="F2904" t="n">
+        <v>140.339</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2905" t="n">
+        <v>140.137</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>140.286</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>140.286</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2906" t="n">
+        <v>139.905</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>139.999</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>140.095</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>139.886</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2907" t="n">
+        <v>139.581</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>139.935</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>139.951</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>139.527</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2908" t="n">
+        <v>140.073</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>139.53</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>140.133</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>139.375</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2909" t="n">
+        <v>140.091</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>140</v>
+      </c>
+      <c r="E2909" t="n">
+        <v>140.25</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>139.93</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2910" t="n">
+        <v>140.066</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>139.991</v>
+      </c>
+      <c r="E2910" t="n">
+        <v>140.128</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>139.741</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2911" t="n">
+        <v>139.779</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>139.938</v>
+      </c>
+      <c r="E2911" t="n">
+        <v>139.944</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>139.771</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2912" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>139.762</v>
+      </c>
+      <c r="E2912" t="n">
+        <v>139.956</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>139.729</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2913" t="n">
+        <v>139.792</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="E2913" t="n">
+        <v>139.998</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>139.74</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2914" t="n">
+        <v>139.965</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>139.912</v>
+      </c>
+      <c r="E2914" t="n">
+        <v>140.05</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2915" t="n">
+        <v>139.912</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>140.012</v>
+      </c>
+      <c r="E2915" t="n">
+        <v>140.012</v>
+      </c>
+      <c r="F2915" t="n">
+        <v>139.906</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2916" t="n">
+        <v>139.844</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>139.88</v>
+      </c>
+      <c r="E2916" t="n">
+        <v>139.905</v>
+      </c>
+      <c r="F2916" t="n">
+        <v>139.79</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2917" t="n">
+        <v>140.017</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>140.015</v>
+      </c>
+      <c r="E2917" t="n">
+        <v>140.07</v>
+      </c>
+      <c r="F2917" t="n">
+        <v>139.92</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2918" t="n">
+        <v>140.176</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>140.007</v>
+      </c>
+      <c r="E2918" t="n">
+        <v>140.183</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>139.944</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2919" t="n">
+        <v>140.227</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="E2919" t="n">
+        <v>140.258</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>140.102</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2920" t="n">
+        <v>140.197</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>140.218</v>
+      </c>
+      <c r="E2920" t="n">
+        <v>140.303</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>140.145</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2921" t="n">
+        <v>140.187</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>140.193</v>
+      </c>
+      <c r="E2921" t="n">
+        <v>140.294</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>140.16</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2922" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>140.231</v>
+      </c>
+      <c r="E2922" t="n">
+        <v>140.284</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>140.156</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2923" t="n">
+        <v>140.282</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>140.178</v>
+      </c>
+      <c r="E2923" t="n">
+        <v>140.305</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>140.134</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2924" t="n">
+        <v>140.794</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>140.47</v>
+      </c>
+      <c r="E2924" t="n">
+        <v>140.83</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>140.405</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2925" t="n">
+        <v>141.217</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>141.145</v>
+      </c>
+      <c r="E2925" t="n">
+        <v>141.27</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>141.036</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2926" t="n">
+        <v>141.103</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>141.052</v>
+      </c>
+      <c r="E2926" t="n">
+        <v>141.74</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>140.935</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2927" t="n">
+        <v>141.184</v>
+      </c>
+      <c r="D2927" t="n">
+        <v>141.19</v>
+      </c>
+      <c r="E2927" t="n">
+        <v>141.238</v>
+      </c>
+      <c r="F2927" t="n">
+        <v>140.992</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2928" t="n">
+        <v>141.318</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E2928" t="n">
+        <v>141.348</v>
+      </c>
+      <c r="F2928" t="n">
+        <v>140.955</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2929" t="n">
+        <v>141.365</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>141.406</v>
+      </c>
+      <c r="E2929" t="n">
+        <v>141.485</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>141.283</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2930" t="n">
+        <v>141.243</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>141.323</v>
+      </c>
+      <c r="E2930" t="n">
+        <v>141.33</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>141.222</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2931" t="n">
+        <v>141.246</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>141.249</v>
+      </c>
+      <c r="E2931" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>141.231</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2932" t="n">
+        <v>141.364</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>141.25</v>
+      </c>
+      <c r="E2932" t="n">
+        <v>141.395</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>141.23</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2933" t="n">
+        <v>141.276</v>
+      </c>
+      <c r="D2933" t="n">
+        <v>141.357</v>
+      </c>
+      <c r="E2933" t="n">
+        <v>141.406</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>141.261</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2934" t="n">
+        <v>141.217</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>141.275</v>
+      </c>
+      <c r="E2934" t="n">
+        <v>141.301</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>141.2</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2935" t="n">
+        <v>141.099</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>141.217</v>
+      </c>
+      <c r="E2935" t="n">
+        <v>141.236</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>141.07</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2936" t="n">
+        <v>141.15</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>141.103</v>
+      </c>
+      <c r="E2936" t="n">
+        <v>141.173</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>141.103</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2937" t="n">
+        <v>141.021</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>141.128</v>
+      </c>
+      <c r="E2937" t="n">
+        <v>141.128</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>140.98</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2938" t="n">
+        <v>140.903</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>141.06</v>
+      </c>
+      <c r="E2938" t="n">
+        <v>141.09</v>
+      </c>
+      <c r="F2938" t="n">
+        <v>140.896</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2939" t="n">
+        <v>141.029</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>140.98</v>
+      </c>
+      <c r="E2939" t="n">
+        <v>141.072</v>
+      </c>
+      <c r="F2939" t="n">
+        <v>140.934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH511010.xlsx
+++ b/data/download_SH511010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2939"/>
+  <dimension ref="A1:F2944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70977,6 +70977,126 @@
         <v>140.934</v>
       </c>
     </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2940" t="n">
+        <v>140.991</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>141.038</v>
+      </c>
+      <c r="E2940" t="n">
+        <v>141.063</v>
+      </c>
+      <c r="F2940" t="n">
+        <v>140.983</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2941" t="n">
+        <v>141.176</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>141.018</v>
+      </c>
+      <c r="E2941" t="n">
+        <v>141.18</v>
+      </c>
+      <c r="F2941" t="n">
+        <v>141.018</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2942" t="n">
+        <v>141.283</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>141.192</v>
+      </c>
+      <c r="E2942" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="F2942" t="n">
+        <v>141.141</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2943" t="n">
+        <v>141.208</v>
+      </c>
+      <c r="D2943" t="n">
+        <v>141.27</v>
+      </c>
+      <c r="E2943" t="n">
+        <v>141.27</v>
+      </c>
+      <c r="F2943" t="n">
+        <v>141.167</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>SH511010</t>
+        </is>
+      </c>
+      <c r="C2944" t="n">
+        <v>141.17</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>141.249</v>
+      </c>
+      <c r="E2944" t="n">
+        <v>141.295</v>
+      </c>
+      <c r="F2944" t="n">
+        <v>141.152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
